--- a/report/ml_perform_final_chain.xlsx
+++ b/report/ml_perform_final_chain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C007BDE-E810-415E-8B97-EA61452F42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6DDC6-F2E1-4B26-ADF0-325CE7AD1BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId5"/>
+    <pivotCache cacheId="27" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -88,10 +88,10 @@
     <t>Average of mae</t>
   </si>
   <si>
-    <t>Sum of mse</t>
-  </si>
-  <si>
     <t>Average of pearson</t>
+  </si>
+  <si>
+    <t>Average of mse</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B6E6AF1-6837-470D-A199-B138C4015EB8}" name="PivotTable18" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B6E6AF1-6837-470D-A199-B138C4015EB8}" name="PivotTable18" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -438,7 +438,7 @@
     <dataField name="Average of mae" fld="0" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -446,7 +446,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -478,7 +478,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -486,7 +486,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7382730-5CFE-4877-A7A1-A3258208A20F}" name="PivotTable19" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7382730-5CFE-4877-A7A1-A3258208A20F}" name="PivotTable19" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -578,10 +578,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of mse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Average of mse" fld="1" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -589,7 +589,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -621,7 +621,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -629,7 +629,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE27BFA4-0873-447F-B54C-AABBF9C45B50}" name="PivotTable20" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE27BFA4-0873-447F-B54C-AABBF9C45B50}" name="PivotTable20" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -730,7 +730,7 @@
     <dataField name="Average of pearson" fld="7" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -738,7 +738,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -770,7 +770,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -778,7 +778,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -1127,7 +1127,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B4" sqref="B4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,6 +1287,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1295,20 +1296,20 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A4" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1345,7 +1346,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>8.5199999999999998E-2</v>
+        <v>2.8399999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1362,7 +1363,7 @@
         <v>3.023E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>8.2630000000000009E-2</v>
+        <v>2.7543333333333336E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1379,7 +1380,7 @@
         <v>3.6519999999999997E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>8.9189999999999992E-2</v>
+        <v>2.9729999999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1396,7 +1397,7 @@
         <v>2.8590000000000001E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>7.9880000000000007E-2</v>
+        <v>2.662666666666667E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1404,16 +1405,16 @@
         <v>17</v>
       </c>
       <c r="B9" s="4">
-        <v>0.10629999999999999</v>
+        <v>2.6574999999999998E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>0.10456</v>
+        <v>2.614E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>0.12603999999999999</v>
+        <v>3.1509999999999996E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>0.33690000000000003</v>
+        <v>2.8075000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1454,6 +1455,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1462,7 +1464,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1477,7 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1621,6 +1623,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
